--- a/HC_11.1_cleaned.xlsx
+++ b/HC_11.1_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\OneDrive\Documents\Python II\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C309A4C-0141-449A-91A5-7B215FF6D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149701D2-B7B0-420E-A666-2F3828D55233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HC_11.1_cleaned.xlsx
+++ b/HC_11.1_cleaned.xlsx
@@ -8,59 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\OneDrive\Documents\Python II\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149701D2-B7B0-420E-A666-2F3828D55233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF4FD8-57CB-4585-8FBE-E0CFA081BEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
-  <si>
-    <t>Preliminary data release date: March 2022
-Preliminary data revised release date: May 2022
-Final data release date: March 2023</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>region</t>
   </si>
   <si>
     <t>division</t>
-  </si>
-  <si>
-    <t>Table HC11.1  Household energy insecurity, 2020</t>
-  </si>
-  <si>
-    <t>Number of housing units (million)</t>
-  </si>
-  <si>
-    <t>Households reporting…</t>
   </si>
   <si>
     <t>Total U.S.a</t>
@@ -816,3049 +781,3008 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD47AD82-3DBD-478C-82F5-5DDD616985F6}">
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>123.53</v>
+      </c>
+      <c r="C2">
+        <v>33.58</v>
+      </c>
+      <c r="D2">
+        <v>24.61</v>
+      </c>
+      <c r="E2">
+        <v>12.2</v>
+      </c>
+      <c r="F2">
+        <v>12.36</v>
+      </c>
+      <c r="G2">
+        <v>4.93</v>
+      </c>
+      <c r="H2">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="B4">
+        <v>21.92</v>
+      </c>
+      <c r="C4">
+        <v>5.54</v>
+      </c>
+      <c r="D4">
+        <v>3.82</v>
+      </c>
+      <c r="E4">
+        <v>2.38</v>
+      </c>
+      <c r="F4">
+        <v>1.84</v>
+      </c>
+      <c r="G4">
+        <v>0.79</v>
+      </c>
+      <c r="H4">
+        <v>0.84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>5.88</v>
+      </c>
+      <c r="C5">
+        <v>1.36</v>
+      </c>
+      <c r="D5">
+        <v>0.93</v>
+      </c>
+      <c r="E5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.42</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>0.19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>123.53</v>
+        <v>16.04</v>
       </c>
       <c r="C6">
-        <v>33.58</v>
+        <v>4.17</v>
       </c>
       <c r="D6">
-        <v>24.61</v>
+        <v>2.89</v>
       </c>
       <c r="E6">
-        <v>12.2</v>
+        <v>1.81</v>
       </c>
       <c r="F6">
-        <v>12.36</v>
+        <v>1.43</v>
       </c>
       <c r="G6">
-        <v>4.93</v>
+        <v>0.54</v>
       </c>
       <c r="H6">
-        <v>6.35</v>
+        <v>0.65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>27.04</v>
+      </c>
+      <c r="C7">
+        <v>6.58</v>
+      </c>
+      <c r="D7">
+        <v>4.87</v>
+      </c>
+      <c r="E7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F7">
+        <v>2.8</v>
+      </c>
+      <c r="G7">
+        <v>0.94</v>
+      </c>
+      <c r="H7">
+        <v>1.04</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>21.92</v>
+        <v>18.55</v>
       </c>
       <c r="C8">
-        <v>5.54</v>
+        <v>4.78</v>
       </c>
       <c r="D8">
-        <v>3.82</v>
+        <v>3.52</v>
       </c>
       <c r="E8">
-        <v>2.38</v>
+        <v>1.46</v>
       </c>
       <c r="F8">
-        <v>1.84</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G8">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="H8">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>5.88</v>
+        <v>8.5</v>
       </c>
       <c r="C9">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
-        <v>0.93</v>
+        <v>1.35</v>
       </c>
       <c r="E9">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F9">
-        <v>0.42</v>
+        <v>0.79</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="H9">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>16.04</v>
+        <v>46.84</v>
       </c>
       <c r="C10">
-        <v>4.17</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>2.89</v>
+        <v>10.66</v>
       </c>
       <c r="E10">
-        <v>1.81</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F10">
-        <v>1.43</v>
+        <v>5.69</v>
       </c>
       <c r="G10">
-        <v>0.54</v>
+        <v>2.09</v>
       </c>
       <c r="H10">
-        <v>0.65</v>
+        <v>3.11</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>27.04</v>
+        <v>24.84</v>
       </c>
       <c r="C11">
         <v>6.58</v>
       </c>
       <c r="D11">
-        <v>4.87</v>
+        <v>4.99</v>
       </c>
       <c r="E11">
-        <v>2.0099999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F11">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="G11">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="H11">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>18.55</v>
+        <v>7.38</v>
       </c>
       <c r="C12">
-        <v>4.78</v>
+        <v>2.38</v>
       </c>
       <c r="D12">
-        <v>3.52</v>
+        <v>1.85</v>
       </c>
       <c r="E12">
-        <v>1.46</v>
+        <v>0.85</v>
       </c>
       <c r="F12">
-        <v>2.0099999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="G12">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="H12">
-        <v>0.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>8.5</v>
+        <v>14.62</v>
       </c>
       <c r="C13">
-        <v>1.8</v>
+        <v>5.03</v>
       </c>
       <c r="D13">
-        <v>1.35</v>
+        <v>3.83</v>
       </c>
       <c r="E13">
-        <v>0.55000000000000004</v>
+        <v>1.53</v>
       </c>
       <c r="F13">
-        <v>0.79</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G13">
-        <v>0.31</v>
+        <v>0.74</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>1.03</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>46.84</v>
+        <v>27.72</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>7.46</v>
       </c>
       <c r="D14">
-        <v>10.66</v>
+        <v>5.25</v>
       </c>
       <c r="E14">
-        <v>4.6500000000000004</v>
+        <v>3.16</v>
       </c>
       <c r="F14">
-        <v>5.69</v>
+        <v>2.02</v>
       </c>
       <c r="G14">
-        <v>2.09</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H14">
-        <v>3.11</v>
+        <v>1.36</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>24.84</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C15">
-        <v>6.58</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D15">
-        <v>4.99</v>
+        <v>1.65</v>
       </c>
       <c r="E15">
-        <v>2.2599999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="F15">
-        <v>2.68</v>
+        <v>0.75</v>
       </c>
       <c r="G15">
-        <v>0.96</v>
+        <v>0.39</v>
       </c>
       <c r="H15">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>7.38</v>
+        <v>4.62</v>
       </c>
       <c r="C16">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="D16">
-        <v>1.85</v>
+        <v>0.74</v>
       </c>
       <c r="E16">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="F16">
-        <v>0.98</v>
+        <v>0.38</v>
       </c>
       <c r="G16">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="H16">
-        <v>0.57999999999999996</v>
+        <v>0.18</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>14.62</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C17">
-        <v>5.03</v>
+        <v>1.25</v>
       </c>
       <c r="D17">
-        <v>3.83</v>
+        <v>0.91</v>
       </c>
       <c r="E17">
-        <v>1.53</v>
+        <v>0.54</v>
       </c>
       <c r="F17">
-        <v>2.0299999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="G17">
-        <v>0.74</v>
+        <v>0.24</v>
       </c>
       <c r="H17">
-        <v>1.03</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>27.72</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="C18">
-        <v>7.46</v>
+        <v>5.2</v>
       </c>
       <c r="D18">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="E18">
-        <v>3.16</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F18">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="G18">
-        <v>1.1200000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="H18">
-        <v>1.36</v>
+        <v>0.9</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="C19">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D19">
-        <v>1.65</v>
-      </c>
-      <c r="E19">
-        <v>0.86</v>
-      </c>
-      <c r="F19">
-        <v>0.75</v>
-      </c>
-      <c r="G19">
-        <v>0.39</v>
-      </c>
-      <c r="H19">
-        <v>0.45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>4.62</v>
+        <v>100.44</v>
       </c>
       <c r="C20">
-        <v>1.01</v>
+        <v>28.04</v>
       </c>
       <c r="D20">
-        <v>0.74</v>
+        <v>20.54</v>
       </c>
       <c r="E20">
-        <v>0.32</v>
+        <v>10.27</v>
       </c>
       <c r="F20">
-        <v>0.38</v>
+        <v>10.32</v>
       </c>
       <c r="G20">
-        <v>0.15</v>
+        <v>3.93</v>
       </c>
       <c r="H20">
-        <v>0.18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>33</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>4.5999999999999996</v>
+        <v>89.24</v>
       </c>
       <c r="C21">
-        <v>1.25</v>
+        <v>24.86</v>
       </c>
       <c r="D21">
-        <v>0.91</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="E21">
-        <v>0.54</v>
+        <v>9.14</v>
       </c>
       <c r="F21">
-        <v>0.37</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="G21">
-        <v>0.24</v>
+        <v>3.47</v>
       </c>
       <c r="H21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>33</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>18.510000000000002</v>
+        <v>11.2</v>
       </c>
       <c r="C22">
-        <v>5.2</v>
+        <v>3.18</v>
       </c>
       <c r="D22">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="E22">
-        <v>2.2999999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F22">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G22">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>23.09</v>
+      </c>
+      <c r="C23">
+        <v>5.54</v>
+      </c>
+      <c r="D23">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E23">
+        <v>1.93</v>
+      </c>
+      <c r="F23">
+        <v>2.04</v>
+      </c>
+      <c r="G23">
+        <v>1.01</v>
+      </c>
+      <c r="H23">
+        <v>1.03</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>100.44</v>
-      </c>
-      <c r="C24">
-        <v>28.04</v>
-      </c>
-      <c r="D24">
-        <v>20.54</v>
-      </c>
-      <c r="E24">
-        <v>10.27</v>
-      </c>
-      <c r="F24">
-        <v>10.32</v>
-      </c>
-      <c r="G24">
-        <v>3.93</v>
-      </c>
-      <c r="H24">
-        <v>5.31</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>89.24</v>
+        <v>42.5</v>
       </c>
       <c r="C25">
-        <v>24.86</v>
+        <v>10.02</v>
       </c>
       <c r="D25">
-        <v>18.190000000000001</v>
+        <v>7.23</v>
       </c>
       <c r="E25">
-        <v>9.14</v>
+        <v>3.51</v>
       </c>
       <c r="F25">
-        <v>9.0399999999999991</v>
+        <v>3.82</v>
       </c>
       <c r="G25">
-        <v>3.47</v>
+        <v>1.36</v>
       </c>
       <c r="H25">
-        <v>4.8099999999999996</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>11.2</v>
+        <v>36.79</v>
       </c>
       <c r="C26">
-        <v>3.18</v>
+        <v>10.51</v>
       </c>
       <c r="D26">
-        <v>2.35</v>
+        <v>7.74</v>
       </c>
       <c r="E26">
-        <v>1.1299999999999999</v>
+        <v>3.81</v>
       </c>
       <c r="F26">
-        <v>1.28</v>
+        <v>4.21</v>
       </c>
       <c r="G26">
-        <v>0.45</v>
+        <v>1.66</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>23.09</v>
+        <v>15.06</v>
       </c>
       <c r="C27">
-        <v>5.54</v>
+        <v>4.75</v>
       </c>
       <c r="D27">
-        <v>4.0599999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="E27">
-        <v>1.93</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F27">
-        <v>2.04</v>
+        <v>1.29</v>
       </c>
       <c r="G27">
-        <v>1.01</v>
+        <v>0.77</v>
       </c>
       <c r="H27">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>22.31</v>
+      </c>
+      <c r="C28">
+        <v>6.72</v>
+      </c>
+      <c r="D28">
+        <v>5.19</v>
+      </c>
+      <c r="E28">
+        <v>2.11</v>
+      </c>
+      <c r="F28">
+        <v>2.68</v>
+      </c>
+      <c r="G28">
+        <v>0.99</v>
+      </c>
+      <c r="H28">
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>42.5</v>
+        <v>6.87</v>
       </c>
       <c r="C29">
-        <v>10.02</v>
+        <v>1.58</v>
       </c>
       <c r="D29">
-        <v>7.23</v>
+        <v>1.03</v>
       </c>
       <c r="E29">
-        <v>3.51</v>
+        <v>0.71</v>
       </c>
       <c r="F29">
-        <v>3.82</v>
+        <v>0.36</v>
       </c>
       <c r="G29">
-        <v>1.36</v>
+        <v>0.16</v>
       </c>
       <c r="H29">
-        <v>1.43</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <v>36.79</v>
-      </c>
-      <c r="C30">
-        <v>10.51</v>
-      </c>
-      <c r="D30">
-        <v>7.74</v>
-      </c>
-      <c r="E30">
-        <v>3.81</v>
-      </c>
-      <c r="F30">
-        <v>4.21</v>
-      </c>
-      <c r="G30">
-        <v>1.66</v>
-      </c>
-      <c r="H30">
-        <v>2.2599999999999998</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>15.06</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="C31">
-        <v>4.75</v>
+        <v>17.09</v>
       </c>
       <c r="D31">
-        <v>3.41</v>
+        <v>11.93</v>
       </c>
       <c r="E31">
-        <v>2.0499999999999998</v>
+        <v>5.89</v>
       </c>
       <c r="F31">
-        <v>1.29</v>
+        <v>6.33</v>
       </c>
       <c r="G31">
-        <v>0.77</v>
+        <v>2.77</v>
       </c>
       <c r="H31">
-        <v>0.98</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>22.31</v>
+        <v>7.45</v>
       </c>
       <c r="C32">
-        <v>6.72</v>
+        <v>2.1</v>
       </c>
       <c r="D32">
-        <v>5.19</v>
+        <v>1.57</v>
       </c>
       <c r="E32">
-        <v>2.11</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>2.68</v>
+        <v>0.76</v>
       </c>
       <c r="G32">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
       <c r="H32">
-        <v>1.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>6.87</v>
+        <v>9.34</v>
       </c>
       <c r="C33">
-        <v>1.58</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D33">
-        <v>1.03</v>
+        <v>3.32</v>
       </c>
       <c r="E33">
-        <v>0.71</v>
+        <v>1.61</v>
       </c>
       <c r="F33">
-        <v>0.36</v>
+        <v>1.55</v>
       </c>
       <c r="G33">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="H33">
-        <v>0.17</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>22.84</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>5.27</v>
+      </c>
+      <c r="E34">
+        <v>2.75</v>
+      </c>
+      <c r="F34">
+        <v>2.27</v>
+      </c>
+      <c r="G34">
+        <v>0.61</v>
+      </c>
+      <c r="H34">
+        <v>0.88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>77.069999999999993</v>
+        <v>6.83</v>
       </c>
       <c r="C35">
-        <v>17.09</v>
+        <v>3.21</v>
       </c>
       <c r="D35">
-        <v>11.93</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E35">
-        <v>5.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F35">
-        <v>6.33</v>
+        <v>1.45</v>
       </c>
       <c r="G35">
-        <v>2.77</v>
+        <v>0.78</v>
       </c>
       <c r="H35">
-        <v>3.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>7.45</v>
-      </c>
-      <c r="C36">
-        <v>2.1</v>
-      </c>
-      <c r="D36">
-        <v>1.57</v>
-      </c>
-      <c r="E36">
-        <v>0.8</v>
-      </c>
-      <c r="F36">
-        <v>0.76</v>
-      </c>
-      <c r="G36">
-        <v>0.25</v>
-      </c>
-      <c r="H36">
-        <v>0.34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>9.34</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="C37">
-        <v>4.1900000000000004</v>
+        <v>5.96</v>
       </c>
       <c r="D37">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="E37">
-        <v>1.61</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F37">
-        <v>1.55</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G37">
-        <v>0.52</v>
+        <v>1.08</v>
       </c>
       <c r="H37">
-        <v>0.59</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>22.84</v>
+        <v>12.48</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="D38">
-        <v>5.27</v>
+        <v>2.6</v>
       </c>
       <c r="E38">
-        <v>2.75</v>
+        <v>1.39</v>
       </c>
       <c r="F38">
-        <v>2.27</v>
+        <v>1.31</v>
       </c>
       <c r="G38">
         <v>0.61</v>
       </c>
       <c r="H38">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>6.83</v>
+        <v>12.76</v>
       </c>
       <c r="C39">
-        <v>3.21</v>
+        <v>3.92</v>
       </c>
       <c r="D39">
-        <v>2.5099999999999998</v>
+        <v>2.92</v>
       </c>
       <c r="E39">
-        <v>1.1499999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="F39">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="G39">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="H39">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>18.34</v>
+      </c>
+      <c r="C40">
+        <v>5.48</v>
+      </c>
+      <c r="D40">
+        <v>4.21</v>
+      </c>
+      <c r="E40">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F40">
+        <v>1.97</v>
+      </c>
+      <c r="G40">
+        <v>0.69</v>
+      </c>
+      <c r="H40">
+        <v>0.94</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>20.260000000000002</v>
+        <v>16.3</v>
       </c>
       <c r="C41">
-        <v>5.96</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D41">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="E41">
-        <v>2.4300000000000002</v>
+        <v>1.82</v>
       </c>
       <c r="F41">
-        <v>2.2599999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="G41">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="H41">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>12.48</v>
+        <v>17.16</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>4.08</v>
       </c>
       <c r="D42">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="E42">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="F42">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="G42">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="H42">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>12.76</v>
+        <v>16.16</v>
       </c>
       <c r="C43">
-        <v>3.92</v>
+        <v>3.61</v>
       </c>
       <c r="D43">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="E43">
-        <v>1.29</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F43">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="G43">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="H43">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>18.34</v>
+        <v>5.53</v>
       </c>
       <c r="C44">
-        <v>5.48</v>
+        <v>1.34</v>
       </c>
       <c r="D44">
-        <v>4.21</v>
+        <v>1.01</v>
       </c>
       <c r="E44">
-        <v>2.0499999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="F44">
-        <v>1.97</v>
+        <v>0.52</v>
       </c>
       <c r="G44">
-        <v>0.69</v>
+        <v>0.16</v>
       </c>
       <c r="H44">
-        <v>0.94</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>16.3</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C45">
-        <v>4.5199999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="D45">
-        <v>3.32</v>
+        <v>0.72</v>
       </c>
       <c r="E45">
-        <v>1.82</v>
+        <v>0.33</v>
       </c>
       <c r="F45">
-        <v>1.72</v>
+        <v>0.33</v>
       </c>
       <c r="G45">
-        <v>0.74</v>
+        <v>0.09</v>
       </c>
       <c r="H45">
-        <v>0.89</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>17.16</v>
-      </c>
-      <c r="C46">
-        <v>4.08</v>
-      </c>
-      <c r="D46">
-        <v>3.02</v>
-      </c>
-      <c r="E46">
-        <v>1.31</v>
-      </c>
-      <c r="F46">
-        <v>1.51</v>
-      </c>
-      <c r="G46">
-        <v>0.66</v>
-      </c>
-      <c r="H46">
-        <v>0.92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>16.16</v>
+        <v>62.71</v>
       </c>
       <c r="C47">
-        <v>3.61</v>
+        <v>15.28</v>
       </c>
       <c r="D47">
-        <v>2.66</v>
+        <v>10.8</v>
       </c>
       <c r="E47">
-        <v>1.1100000000000001</v>
+        <v>5.33</v>
       </c>
       <c r="F47">
-        <v>1.22</v>
+        <v>5.45</v>
       </c>
       <c r="G47">
-        <v>0.38</v>
+        <v>1.99</v>
       </c>
       <c r="H47">
-        <v>0.75</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>5.53</v>
+        <v>42.57</v>
       </c>
       <c r="C48">
-        <v>1.34</v>
+        <v>13.21</v>
       </c>
       <c r="D48">
-        <v>1.01</v>
+        <v>10.02</v>
       </c>
       <c r="E48">
-        <v>0.47</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F48">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="G48">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="H48">
-        <v>0.21</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>4.5599999999999996</v>
+        <v>4.93</v>
       </c>
       <c r="C49">
-        <v>0.96</v>
+        <v>1.19</v>
       </c>
       <c r="D49">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="E49">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="F49">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="G49">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="H49">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>5.21</v>
+      </c>
+      <c r="C50">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.9</v>
+      </c>
+      <c r="E50">
+        <v>0.42</v>
+      </c>
+      <c r="F50">
+        <v>0.35</v>
+      </c>
+      <c r="G50">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H50">
+        <v>0.13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>62.71</v>
+        <v>2.25</v>
       </c>
       <c r="C51">
-        <v>15.28</v>
+        <v>0.52</v>
       </c>
       <c r="D51">
-        <v>10.8</v>
+        <v>0.38</v>
       </c>
       <c r="E51">
-        <v>5.33</v>
+        <v>0.27</v>
       </c>
       <c r="F51">
-        <v>5.45</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G51">
-        <v>1.99</v>
+        <v>0.18</v>
       </c>
       <c r="H51">
-        <v>2.99</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52">
-        <v>42.57</v>
-      </c>
-      <c r="C52">
-        <v>13.21</v>
-      </c>
-      <c r="D52">
-        <v>10.02</v>
-      </c>
-      <c r="E52">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="F52">
-        <v>5.2</v>
-      </c>
-      <c r="G52">
-        <v>1.61</v>
-      </c>
-      <c r="H52">
-        <v>2.4500000000000002</v>
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>4.93</v>
+        <v>5.79</v>
       </c>
       <c r="C53">
-        <v>1.19</v>
+        <v>2.21</v>
       </c>
       <c r="D53">
-        <v>0.79</v>
+        <v>1.71</v>
       </c>
       <c r="E53">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="G53">
-        <v>0.3</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H53">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54">
-        <v>5.21</v>
-      </c>
-      <c r="C54">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D54">
-        <v>0.9</v>
-      </c>
-      <c r="E54">
-        <v>0.42</v>
-      </c>
-      <c r="F54">
-        <v>0.35</v>
-      </c>
-      <c r="G54">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H54">
-        <v>0.13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>2.25</v>
+        <v>74.42</v>
       </c>
       <c r="C55">
-        <v>0.52</v>
+        <v>18.55</v>
       </c>
       <c r="D55">
-        <v>0.38</v>
+        <v>13.51</v>
       </c>
       <c r="E55">
-        <v>0.27</v>
+        <v>6.13</v>
       </c>
       <c r="F55">
-        <v>0.14000000000000001</v>
+        <v>7.23</v>
       </c>
       <c r="G55">
-        <v>0.18</v>
+        <v>2.59</v>
       </c>
       <c r="H55">
-        <v>0.1</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>16.13</v>
+      </c>
+      <c r="C56">
+        <v>4.17</v>
+      </c>
+      <c r="D56">
+        <v>3.27</v>
+      </c>
+      <c r="E56">
+        <v>1.34</v>
+      </c>
+      <c r="F56">
+        <v>1.59</v>
+      </c>
+      <c r="G56">
+        <v>0.37</v>
+      </c>
+      <c r="H56">
+        <v>0.73</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B57">
-        <v>5.79</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="C57">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="D57">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F57">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="G57">
-        <v>0.56999999999999995</v>
+        <v>0.39</v>
       </c>
       <c r="H57">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>1.06</v>
+      </c>
+      <c r="C58">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D58">
+        <v>0.18</v>
+      </c>
+      <c r="E58">
+        <v>0.1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>74.42</v>
+        <v>7.65</v>
       </c>
       <c r="C59">
-        <v>18.55</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D59">
-        <v>13.51</v>
+        <v>1.8</v>
       </c>
       <c r="E59">
-        <v>6.13</v>
+        <v>1.06</v>
       </c>
       <c r="F59">
-        <v>7.23</v>
+        <v>0.84</v>
       </c>
       <c r="G59">
-        <v>2.59</v>
+        <v>0.22</v>
       </c>
       <c r="H59">
-        <v>3.71</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>16.13</v>
+        <v>3.49</v>
       </c>
       <c r="C60">
-        <v>4.17</v>
+        <v>1.33</v>
       </c>
       <c r="D60">
-        <v>3.27</v>
+        <v>1.04</v>
       </c>
       <c r="E60">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
       <c r="F60">
-        <v>1.59</v>
+        <v>0.4</v>
       </c>
       <c r="G60">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="H60">
-        <v>0.73</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>9.2899999999999991</v>
+        <v>3.03</v>
       </c>
       <c r="C61">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="D61">
-        <v>1.53</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E61">
-        <v>1.0900000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="F61">
-        <v>0.72</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G61">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="H61">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>1.06</v>
+        <v>1.94</v>
       </c>
       <c r="C62">
-        <v>0.28999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D62">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="E62">
-        <v>0.1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" t="s">
-        <v>71</v>
-      </c>
-      <c r="H62" t="s">
-        <v>71</v>
+        <v>0.23</v>
+      </c>
+      <c r="F62">
+        <v>0.11</v>
+      </c>
+      <c r="G62">
+        <v>0.16</v>
+      </c>
+      <c r="H62">
+        <v>0.08</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>7.65</v>
+        <v>0.74</v>
       </c>
       <c r="C63">
-        <v>2.4700000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="D63">
-        <v>1.8</v>
-      </c>
-      <c r="E63">
-        <v>1.06</v>
+        <v>0.11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
       </c>
       <c r="F63">
-        <v>0.84</v>
-      </c>
-      <c r="G63">
-        <v>0.22</v>
-      </c>
-      <c r="H63">
-        <v>0.32</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>3.49</v>
+        <v>5.79</v>
       </c>
       <c r="C64">
-        <v>1.33</v>
+        <v>2.21</v>
       </c>
       <c r="D64">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="E64">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="G64">
-        <v>0.27</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H64">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65">
-        <v>3.03</v>
-      </c>
-      <c r="C65">
-        <v>1.54</v>
-      </c>
-      <c r="D65">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E65">
-        <v>0.68</v>
-      </c>
-      <c r="F65">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G65">
-        <v>0.31</v>
-      </c>
-      <c r="H65">
-        <v>0.38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>1.94</v>
+        <v>109.51</v>
       </c>
       <c r="C66">
-        <v>0.45</v>
+        <v>28.48</v>
       </c>
       <c r="D66">
-        <v>0.31</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0.23</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="F66">
-        <v>0.11</v>
+        <v>10.7</v>
       </c>
       <c r="G66">
-        <v>0.16</v>
+        <v>4.03</v>
       </c>
       <c r="H66">
-        <v>0.08</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.74</v>
+        <v>14.02</v>
       </c>
       <c r="C67">
-        <v>0.16</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D67">
-        <v>0.11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>71</v>
+        <v>3.61</v>
+      </c>
+      <c r="E67">
+        <v>2.23</v>
       </c>
       <c r="F67">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" t="s">
-        <v>71</v>
+        <v>1.66</v>
+      </c>
+      <c r="G67">
+        <v>0.9</v>
+      </c>
+      <c r="H67">
+        <v>0.65</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>5.79</v>
-      </c>
-      <c r="C68">
-        <v>2.21</v>
-      </c>
-      <c r="D68">
-        <v>1.71</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0.76</v>
-      </c>
-      <c r="G68">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H68">
-        <v>0.49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>82.69</v>
+      </c>
+      <c r="C69">
+        <v>18.37</v>
+      </c>
+      <c r="D69">
+        <v>13.5</v>
+      </c>
+      <c r="E69">
+        <v>5.91</v>
+      </c>
+      <c r="F69">
+        <v>7.05</v>
+      </c>
+      <c r="G69">
+        <v>2.37</v>
+      </c>
+      <c r="H69">
+        <v>3.75</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>109.51</v>
+        <v>1.76</v>
       </c>
       <c r="C70">
-        <v>28.48</v>
+        <v>0.34</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>0.19</v>
       </c>
       <c r="E70">
-        <v>9.9700000000000006</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F70">
-        <v>10.7</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G70">
-        <v>4.03</v>
+        <v>0.08</v>
       </c>
       <c r="H70">
-        <v>5.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>14.02</v>
+        <v>21.43</v>
       </c>
       <c r="C71">
-        <v>5.0999999999999996</v>
+        <v>8.43</v>
       </c>
       <c r="D71">
-        <v>3.61</v>
+        <v>6.36</v>
       </c>
       <c r="E71">
-        <v>2.23</v>
+        <v>3.33</v>
       </c>
       <c r="F71">
-        <v>1.66</v>
+        <v>3.13</v>
       </c>
       <c r="G71">
-        <v>0.9</v>
+        <v>1.38</v>
       </c>
       <c r="H71">
-        <v>0.65</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="B72">
+        <v>2.68</v>
+      </c>
+      <c r="C72">
+        <v>0.96</v>
+      </c>
+      <c r="D72">
+        <v>0.66</v>
+      </c>
+      <c r="E72">
+        <v>0.41</v>
+      </c>
+      <c r="F72">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G72">
+        <v>0.16</v>
+      </c>
+      <c r="H72">
+        <v>0.23</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>82.69</v>
+        <v>0.95</v>
       </c>
       <c r="C73">
-        <v>18.37</v>
+        <v>0.38</v>
       </c>
       <c r="D73">
-        <v>13.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E73">
-        <v>5.91</v>
+        <v>0.18</v>
       </c>
       <c r="F73">
-        <v>7.05</v>
-      </c>
-      <c r="G73">
-        <v>2.37</v>
+        <v>0.09</v>
+      </c>
+      <c r="G73" t="s">
+        <v>60</v>
       </c>
       <c r="H73">
-        <v>3.75</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>1.76</v>
+        <v>14.02</v>
       </c>
       <c r="C74">
-        <v>0.34</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D74">
-        <v>0.19</v>
+        <v>3.61</v>
       </c>
       <c r="E74">
-        <v>0.14000000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="F74">
-        <v>0.14000000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="G74">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="H74">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75">
-        <v>21.43</v>
-      </c>
-      <c r="C75">
-        <v>8.43</v>
-      </c>
-      <c r="D75">
-        <v>6.36</v>
-      </c>
-      <c r="E75">
-        <v>3.33</v>
-      </c>
-      <c r="F75">
-        <v>3.13</v>
-      </c>
-      <c r="G75">
-        <v>1.38</v>
-      </c>
-      <c r="H75">
-        <v>1.52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>2.68</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="C76">
-        <v>0.96</v>
+        <v>6.58</v>
       </c>
       <c r="D76">
-        <v>0.66</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E76">
-        <v>0.41</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>0.28999999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="G76">
-        <v>0.16</v>
+        <v>0.74</v>
       </c>
       <c r="H76">
-        <v>0.23</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.95</v>
+        <v>64.27</v>
       </c>
       <c r="C77">
-        <v>0.38</v>
+        <v>15.34</v>
       </c>
       <c r="D77">
-        <v>0.28999999999999998</v>
+        <v>11.13</v>
       </c>
       <c r="E77">
-        <v>0.18</v>
+        <v>4.8</v>
       </c>
       <c r="F77">
-        <v>0.09</v>
-      </c>
-      <c r="G77" t="s">
-        <v>71</v>
+        <v>5.6</v>
+      </c>
+      <c r="G77">
+        <v>1.77</v>
       </c>
       <c r="H77">
-        <v>0.09</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>14.02</v>
+        <v>21.29</v>
       </c>
       <c r="C78">
-        <v>5.0999999999999996</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D78">
-        <v>3.61</v>
+        <v>7.17</v>
       </c>
       <c r="E78">
-        <v>2.23</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F78">
-        <v>1.66</v>
+        <v>3.98</v>
       </c>
       <c r="G78">
-        <v>0.9</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H78">
-        <v>0.65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>3.63</v>
+      </c>
+      <c r="C79">
+        <v>1.85</v>
+      </c>
+      <c r="D79">
+        <v>1.41</v>
+      </c>
+      <c r="E79">
+        <v>0.92</v>
+      </c>
+      <c r="F79">
+        <v>0.61</v>
+      </c>
+      <c r="G79">
+        <v>0.41</v>
+      </c>
+      <c r="H79">
+        <v>0.38</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="C80">
-        <v>6.58</v>
-      </c>
-      <c r="D80">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>2.17</v>
-      </c>
-      <c r="G80">
-        <v>0.74</v>
-      </c>
-      <c r="H80">
-        <v>1.07</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>64.27</v>
+        <v>43.51</v>
       </c>
       <c r="C81">
-        <v>15.34</v>
+        <v>15.97</v>
       </c>
       <c r="D81">
-        <v>11.13</v>
+        <v>11.93</v>
       </c>
       <c r="E81">
-        <v>4.8</v>
+        <v>6.07</v>
       </c>
       <c r="F81">
-        <v>5.6</v>
+        <v>6.24</v>
       </c>
       <c r="G81">
-        <v>1.77</v>
+        <v>2.61</v>
       </c>
       <c r="H81">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>21.29</v>
+        <v>77.95</v>
       </c>
       <c r="C82">
-        <v>9.8000000000000007</v>
+        <v>17.25</v>
       </c>
       <c r="D82">
-        <v>7.17</v>
+        <v>12.44</v>
       </c>
       <c r="E82">
-        <v>4.4800000000000004</v>
+        <v>5.93</v>
       </c>
       <c r="F82">
-        <v>3.98</v>
+        <v>6.04</v>
       </c>
       <c r="G82">
-        <v>2.0099999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>3.63</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C83">
-        <v>1.85</v>
+        <v>0.35</v>
       </c>
       <c r="D83">
-        <v>1.41</v>
+        <v>0.24</v>
       </c>
       <c r="E83">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="F83">
-        <v>0.61</v>
-      </c>
-      <c r="G83">
-        <v>0.41</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>60</v>
       </c>
       <c r="H83">
-        <v>0.38</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>43.51</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="C85">
-        <v>15.97</v>
+        <v>8.52</v>
       </c>
       <c r="D85">
-        <v>11.93</v>
+        <v>6.07</v>
       </c>
       <c r="E85">
-        <v>6.07</v>
+        <v>3.66</v>
       </c>
       <c r="F85">
-        <v>6.24</v>
+        <v>2.62</v>
       </c>
       <c r="G85">
-        <v>2.61</v>
+        <v>1.07</v>
       </c>
       <c r="H85">
-        <v>3.03</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>77.95</v>
+        <v>45.31</v>
       </c>
       <c r="C86">
-        <v>17.25</v>
+        <v>9.56</v>
       </c>
       <c r="D86">
-        <v>12.44</v>
+        <v>6.7</v>
       </c>
       <c r="E86">
-        <v>5.93</v>
+        <v>3.64</v>
       </c>
       <c r="F86">
-        <v>6.04</v>
+        <v>3.15</v>
       </c>
       <c r="G86">
-        <v>2.27</v>
+        <v>1.26</v>
       </c>
       <c r="H86">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>2.0699999999999998</v>
+        <v>18.27</v>
       </c>
       <c r="C87">
-        <v>0.35</v>
+        <v>5.87</v>
       </c>
       <c r="D87">
-        <v>0.24</v>
+        <v>4.42</v>
       </c>
       <c r="E87">
-        <v>0.2</v>
+        <v>1.85</v>
       </c>
       <c r="F87">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G87">
+        <v>0.95</v>
       </c>
       <c r="H87">
-        <v>7.0000000000000007E-2</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>15.56</v>
+      </c>
+      <c r="C88">
+        <v>5.08</v>
+      </c>
+      <c r="D88">
+        <v>3.91</v>
+      </c>
+      <c r="E88">
+        <v>1.61</v>
+      </c>
+      <c r="F88">
+        <v>2.1</v>
+      </c>
+      <c r="G88">
+        <v>0.69</v>
+      </c>
+      <c r="H88">
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>33.590000000000003</v>
+        <v>6.44</v>
       </c>
       <c r="C89">
-        <v>8.52</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D89">
-        <v>6.07</v>
+        <v>1.93</v>
       </c>
       <c r="E89">
-        <v>3.66</v>
+        <v>0.75</v>
       </c>
       <c r="F89">
-        <v>2.62</v>
+        <v>1.22</v>
       </c>
       <c r="G89">
-        <v>1.07</v>
+        <v>0.52</v>
       </c>
       <c r="H89">
-        <v>1.2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>45.31</v>
+        <v>4.37</v>
       </c>
       <c r="C90">
-        <v>9.56</v>
+        <v>2.08</v>
       </c>
       <c r="D90">
-        <v>6.7</v>
+        <v>1.59</v>
       </c>
       <c r="E90">
-        <v>3.64</v>
+        <v>0.68</v>
       </c>
       <c r="F90">
-        <v>3.15</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G90">
-        <v>1.26</v>
+        <v>0.45</v>
       </c>
       <c r="H90">
-        <v>1.86</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91">
-        <v>18.27</v>
-      </c>
-      <c r="C91">
-        <v>5.87</v>
-      </c>
-      <c r="D91">
-        <v>4.42</v>
-      </c>
-      <c r="E91">
-        <v>1.85</v>
-      </c>
-      <c r="F91">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G91">
-        <v>0.95</v>
-      </c>
-      <c r="H91">
-        <v>1.02</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>15.56</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C92">
-        <v>5.08</v>
+        <v>2.6</v>
       </c>
       <c r="D92">
-        <v>3.91</v>
+        <v>2.1</v>
       </c>
       <c r="E92">
-        <v>1.61</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F92">
-        <v>2.1</v>
+        <v>1.19</v>
       </c>
       <c r="G92">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
       <c r="H92">
-        <v>1.0900000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>6.44</v>
+        <v>4.01</v>
       </c>
       <c r="C93">
-        <v>2.4500000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="D93">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="E93">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F93">
-        <v>1.22</v>
+        <v>0.78</v>
       </c>
       <c r="G93">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="H93">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>4.37</v>
+        <v>10.25</v>
       </c>
       <c r="C94">
-        <v>2.08</v>
+        <v>4.8</v>
       </c>
       <c r="D94">
-        <v>1.59</v>
+        <v>3.86</v>
       </c>
       <c r="E94">
-        <v>0.68</v>
+        <v>2.12</v>
       </c>
       <c r="F94">
-        <v>1.0900000000000001</v>
+        <v>1.86</v>
       </c>
       <c r="G94">
-        <v>0.45</v>
+        <v>0.82</v>
       </c>
       <c r="H94">
-        <v>0.56000000000000005</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>24.07</v>
+      </c>
+      <c r="C95">
+        <v>9.56</v>
+      </c>
+      <c r="D95">
+        <v>7.54</v>
+      </c>
+      <c r="E95">
+        <v>3.6</v>
+      </c>
+      <c r="F95">
+        <v>3.46</v>
+      </c>
+      <c r="G95">
+        <v>1.52</v>
+      </c>
+      <c r="H95">
+        <v>1.97</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B96">
-        <v>4.4800000000000004</v>
+        <v>19.61</v>
       </c>
       <c r="C96">
-        <v>2.6</v>
+        <v>5.74</v>
       </c>
       <c r="D96">
-        <v>2.1</v>
+        <v>4.22</v>
       </c>
       <c r="E96">
-        <v>1.1100000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="F96">
-        <v>1.19</v>
+        <v>2.25</v>
       </c>
       <c r="G96">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="H96">
-        <v>0.54</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>4.01</v>
+        <v>27.71</v>
       </c>
       <c r="C97">
-        <v>2.25</v>
+        <v>5.57</v>
       </c>
       <c r="D97">
-        <v>1.87</v>
+        <v>3.56</v>
       </c>
       <c r="E97">
-        <v>0.85</v>
+        <v>1.57</v>
       </c>
       <c r="F97">
-        <v>0.78</v>
+        <v>1.94</v>
       </c>
       <c r="G97">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H97">
-        <v>0.32</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>10.25</v>
+        <v>16.54</v>
       </c>
       <c r="C98">
-        <v>4.8</v>
+        <v>1.84</v>
       </c>
       <c r="D98">
-        <v>3.86</v>
+        <v>1.01</v>
       </c>
       <c r="E98">
-        <v>2.12</v>
+        <v>0.68</v>
       </c>
       <c r="F98">
-        <v>1.86</v>
+        <v>0.62</v>
       </c>
       <c r="G98">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="H98">
-        <v>0.88</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>24.07</v>
+        <v>16.86</v>
       </c>
       <c r="C99">
-        <v>9.56</v>
+        <v>1.22</v>
       </c>
       <c r="D99">
-        <v>7.54</v>
+        <v>0.44</v>
       </c>
       <c r="E99">
-        <v>3.6</v>
+        <v>0.52</v>
       </c>
       <c r="F99">
-        <v>3.46</v>
+        <v>0.26</v>
       </c>
       <c r="G99">
-        <v>1.52</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H99">
-        <v>1.97</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100">
-        <v>19.61</v>
-      </c>
-      <c r="C100">
-        <v>5.74</v>
-      </c>
-      <c r="D100">
-        <v>4.22</v>
-      </c>
-      <c r="E100">
-        <v>1.75</v>
-      </c>
-      <c r="F100">
-        <v>2.25</v>
-      </c>
-      <c r="G100">
-        <v>0.83</v>
-      </c>
-      <c r="H100">
-        <v>1.1399999999999999</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>27.71</v>
+        <v>112.7</v>
       </c>
       <c r="C101">
-        <v>5.57</v>
+        <v>30.36</v>
       </c>
       <c r="D101">
-        <v>3.56</v>
+        <v>22.29</v>
       </c>
       <c r="E101">
-        <v>1.57</v>
+        <v>10.92</v>
       </c>
       <c r="F101">
-        <v>1.94</v>
+        <v>11.57</v>
       </c>
       <c r="G101">
-        <v>0.56000000000000005</v>
+        <v>4.43</v>
       </c>
       <c r="H101">
-        <v>0.92</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>16.54</v>
+        <v>4.34</v>
       </c>
       <c r="C102">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="D102">
-        <v>1.01</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E102">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="F102">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="G102">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="H102">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>16.86</v>
+        <v>0.72</v>
       </c>
       <c r="C103">
-        <v>1.22</v>
+        <v>0.16</v>
       </c>
       <c r="D103">
-        <v>0.44</v>
-      </c>
-      <c r="E103">
-        <v>0.52</v>
-      </c>
-      <c r="F103">
-        <v>0.26</v>
-      </c>
-      <c r="G103">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H103">
-        <v>0.24</v>
+        <v>0.13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H103" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>5.77</v>
+      </c>
+      <c r="C104">
+        <v>2.04</v>
+      </c>
+      <c r="D104">
+        <v>1.61</v>
+      </c>
+      <c r="E104">
+        <v>0.74</v>
+      </c>
+      <c r="F104">
+        <v>0.6</v>
+      </c>
+      <c r="G104">
+        <v>0.35</v>
+      </c>
+      <c r="H104">
+        <v>0.31</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105">
-        <v>112.7</v>
-      </c>
-      <c r="C105">
-        <v>30.36</v>
-      </c>
-      <c r="D105">
-        <v>22.29</v>
-      </c>
-      <c r="E105">
-        <v>10.92</v>
-      </c>
-      <c r="F105">
-        <v>11.57</v>
-      </c>
-      <c r="G105">
-        <v>4.43</v>
-      </c>
-      <c r="H105">
-        <v>5.89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B106">
-        <v>4.34</v>
+        <v>52.11</v>
       </c>
       <c r="C106">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>0.56999999999999995</v>
+        <v>6.93</v>
       </c>
       <c r="E106">
-        <v>0.47</v>
+        <v>4.38</v>
       </c>
       <c r="F106">
-        <v>0.18</v>
+        <v>2.77</v>
       </c>
       <c r="G106">
-        <v>0.13</v>
+        <v>1.41</v>
       </c>
       <c r="H106">
-        <v>0.12</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B107">
-        <v>0.72</v>
+        <v>71.42</v>
       </c>
       <c r="C107">
-        <v>0.16</v>
+        <v>23.57</v>
       </c>
       <c r="D107">
-        <v>0.13</v>
-      </c>
-      <c r="E107" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" t="s">
-        <v>71</v>
-      </c>
-      <c r="G107" t="s">
-        <v>71</v>
-      </c>
-      <c r="H107" t="s">
-        <v>71</v>
+        <v>17.670000000000002</v>
+      </c>
+      <c r="E107">
+        <v>7.81</v>
+      </c>
+      <c r="F107">
+        <v>9.59</v>
+      </c>
+      <c r="G107">
+        <v>3.53</v>
+      </c>
+      <c r="H107">
+        <v>4.46</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108">
-        <v>5.77</v>
-      </c>
-      <c r="C108">
-        <v>2.04</v>
-      </c>
-      <c r="D108">
-        <v>1.61</v>
-      </c>
-      <c r="E108">
-        <v>0.74</v>
-      </c>
-      <c r="F108">
-        <v>0.6</v>
-      </c>
-      <c r="G108">
-        <v>0.35</v>
-      </c>
-      <c r="H108">
-        <v>0.31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>34.58</v>
+      </c>
+      <c r="C109">
+        <v>12.88</v>
+      </c>
+      <c r="D109">
+        <v>10.02</v>
+      </c>
+      <c r="E109">
+        <v>3.97</v>
+      </c>
+      <c r="F109">
+        <v>5.9</v>
+      </c>
+      <c r="G109">
+        <v>2.25</v>
+      </c>
+      <c r="H109">
+        <v>2.81</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B110">
-        <v>52.11</v>
+        <v>88.95</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>20.69</v>
       </c>
       <c r="D110">
-        <v>6.93</v>
+        <v>14.59</v>
       </c>
       <c r="E110">
-        <v>4.38</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="F110">
-        <v>2.77</v>
+        <v>6.46</v>
       </c>
       <c r="G110">
-        <v>1.41</v>
+        <v>2.69</v>
       </c>
       <c r="H110">
-        <v>1.89</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111">
-        <v>71.42</v>
-      </c>
-      <c r="C111">
-        <v>23.57</v>
-      </c>
-      <c r="D111">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="E111">
-        <v>7.81</v>
-      </c>
-      <c r="F111">
-        <v>9.59</v>
-      </c>
-      <c r="G111">
-        <v>3.53</v>
-      </c>
-      <c r="H111">
-        <v>4.46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>13.99</v>
+      </c>
+      <c r="C112">
+        <v>6.57</v>
+      </c>
+      <c r="D112">
+        <v>5.14</v>
+      </c>
+      <c r="E112">
+        <v>2.4</v>
+      </c>
+      <c r="F112">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G112">
+        <v>0.92</v>
+      </c>
+      <c r="H112">
+        <v>1.19</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B113">
-        <v>34.58</v>
+        <v>109.54</v>
       </c>
       <c r="C113">
-        <v>12.88</v>
+        <v>27.01</v>
       </c>
       <c r="D113">
-        <v>10.02</v>
+        <v>19.47</v>
       </c>
       <c r="E113">
-        <v>3.97</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="F113">
-        <v>5.9</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="G113">
-        <v>2.25</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H113">
-        <v>2.81</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114">
-        <v>88.95</v>
-      </c>
-      <c r="C114">
-        <v>20.69</v>
-      </c>
-      <c r="D114">
-        <v>14.59</v>
-      </c>
-      <c r="E114">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="F114">
-        <v>6.46</v>
-      </c>
-      <c r="G114">
-        <v>2.69</v>
-      </c>
-      <c r="H114">
-        <v>3.54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>99.99</v>
+      </c>
+      <c r="C115">
+        <v>23.17</v>
+      </c>
+      <c r="D115">
+        <v>16.78</v>
+      </c>
+      <c r="E115">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F115">
+        <v>8.02</v>
+      </c>
+      <c r="G115">
+        <v>3.23</v>
+      </c>
+      <c r="H115">
+        <v>4.28</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>13.99</v>
+        <v>12.04</v>
       </c>
       <c r="C116">
-        <v>6.57</v>
+        <v>5.52</v>
       </c>
       <c r="D116">
-        <v>5.14</v>
+        <v>4.43</v>
       </c>
       <c r="E116">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="F116">
-        <v>2.2400000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="G116">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="H116">
-        <v>1.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>109.54</v>
+        <v>87.94</v>
       </c>
       <c r="C117">
-        <v>27.01</v>
+        <v>17.66</v>
       </c>
       <c r="D117">
-        <v>19.47</v>
+        <v>12.35</v>
       </c>
       <c r="E117">
-        <v>9.7899999999999991</v>
+        <v>6.44</v>
       </c>
       <c r="F117">
-        <v>10.119999999999999</v>
+        <v>6.15</v>
       </c>
       <c r="G117">
-        <v>4.0199999999999996</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H117">
-        <v>5.15</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>12.95</v>
+      </c>
+      <c r="C118">
+        <v>6.73</v>
+      </c>
+      <c r="D118">
+        <v>5.21</v>
+      </c>
+      <c r="E118">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F118">
+        <v>3.37</v>
+      </c>
+      <c r="G118">
+        <v>1.23</v>
+      </c>
+      <c r="H118">
+        <v>1.42</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B119">
-        <v>99.99</v>
+        <v>0.63</v>
       </c>
       <c r="C119">
-        <v>23.17</v>
+        <v>0.35</v>
       </c>
       <c r="D119">
-        <v>16.78</v>
+        <v>0.26</v>
       </c>
       <c r="E119">
-        <v>8.4700000000000006</v>
+        <v>0.11</v>
       </c>
       <c r="F119">
-        <v>8.02</v>
-      </c>
-      <c r="G119">
-        <v>3.23</v>
-      </c>
-      <c r="H119">
-        <v>4.28</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H119" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B120">
-        <v>12.04</v>
+        <v>12.32</v>
       </c>
       <c r="C120">
-        <v>5.52</v>
+        <v>6.39</v>
       </c>
       <c r="D120">
-        <v>4.43</v>
+        <v>4.95</v>
       </c>
       <c r="E120">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="F120">
-        <v>1.87</v>
+        <v>3.23</v>
       </c>
       <c r="G120">
-        <v>0.76</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>87.94</v>
+        <v>6.06</v>
       </c>
       <c r="C121">
-        <v>17.66</v>
+        <v>1.53</v>
       </c>
       <c r="D121">
-        <v>12.35</v>
+        <v>1.03</v>
       </c>
       <c r="E121">
-        <v>6.44</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>6.15</v>
+        <v>0.21</v>
       </c>
       <c r="G121">
-        <v>2.4700000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="H121">
-        <v>3.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>12.95</v>
+        <v>1.08</v>
       </c>
       <c r="C122">
-        <v>6.73</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D122">
-        <v>5.21</v>
+        <v>0.41</v>
       </c>
       <c r="E122">
-        <v>2.2599999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="F122">
-        <v>3.37</v>
+        <v>0.19</v>
       </c>
       <c r="G122">
-        <v>1.23</v>
+        <v>0.11</v>
       </c>
       <c r="H122">
-        <v>1.42</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
       <c r="C123">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D123">
-        <v>0.26</v>
-      </c>
-      <c r="E123">
-        <v>0.11</v>
-      </c>
-      <c r="F123">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" t="s">
+        <v>60</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H123" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>12.32</v>
+        <v>3.1</v>
       </c>
       <c r="C124">
-        <v>6.39</v>
+        <v>1.43</v>
       </c>
       <c r="D124">
-        <v>4.95</v>
+        <v>1.06</v>
       </c>
       <c r="E124">
-        <v>2.15</v>
+        <v>0.51</v>
       </c>
       <c r="F124">
-        <v>3.23</v>
+        <v>0.53</v>
       </c>
       <c r="G124">
-        <v>1.1599999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="H124">
-        <v>1.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125">
-        <v>6.06</v>
-      </c>
-      <c r="C125">
-        <v>1.53</v>
-      </c>
-      <c r="D125">
-        <v>1.03</v>
-      </c>
-      <c r="E125">
-        <v>0.75</v>
-      </c>
-      <c r="F125">
-        <v>0.21</v>
-      </c>
-      <c r="G125">
-        <v>0.18</v>
-      </c>
-      <c r="H125">
-        <v>0.26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>1.08</v>
+        <v>82.92</v>
       </c>
       <c r="C126">
-        <v>0.56000000000000005</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="D126">
-        <v>0.41</v>
+        <v>11.76</v>
       </c>
       <c r="E126">
-        <v>0.17</v>
+        <v>5.99</v>
       </c>
       <c r="F126">
-        <v>0.19</v>
+        <v>5.49</v>
       </c>
       <c r="G126">
-        <v>0.11</v>
+        <v>2.84</v>
       </c>
       <c r="H126">
-        <v>7.0000000000000007E-2</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>0.35</v>
+        <v>40.61</v>
       </c>
       <c r="C127">
-        <v>0.15</v>
+        <v>16.66</v>
       </c>
       <c r="D127">
-        <v>0.12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>71</v>
-      </c>
-      <c r="F127" t="s">
-        <v>71</v>
-      </c>
-      <c r="G127" t="s">
-        <v>71</v>
-      </c>
-      <c r="H127" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128">
-        <v>3.1</v>
-      </c>
-      <c r="C128">
-        <v>1.43</v>
-      </c>
-      <c r="D128">
-        <v>1.06</v>
-      </c>
-      <c r="E128">
-        <v>0.51</v>
-      </c>
-      <c r="F128">
-        <v>0.53</v>
-      </c>
-      <c r="G128">
-        <v>0.18</v>
-      </c>
-      <c r="H128">
-        <v>0.31</v>
+        <v>12.84</v>
+      </c>
+      <c r="E127">
+        <v>6.2</v>
+      </c>
+      <c r="F127">
+        <v>6.87</v>
+      </c>
+      <c r="G127">
+        <v>2.09</v>
+      </c>
+      <c r="H127">
+        <v>2.52</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130">
-        <v>82.92</v>
-      </c>
-      <c r="C130">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="D130">
-        <v>11.76</v>
-      </c>
-      <c r="E130">
-        <v>5.99</v>
-      </c>
-      <c r="F130">
-        <v>5.49</v>
-      </c>
-      <c r="G130">
-        <v>2.84</v>
-      </c>
-      <c r="H130">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131">
-        <v>40.61</v>
-      </c>
-      <c r="C131">
-        <v>16.66</v>
-      </c>
-      <c r="D131">
-        <v>12.84</v>
-      </c>
-      <c r="E131">
-        <v>6.2</v>
-      </c>
-      <c r="F131">
-        <v>6.87</v>
-      </c>
-      <c r="G131">
-        <v>2.09</v>
-      </c>
-      <c r="H131">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>139</v>
-      </c>
-      <c r="J133" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="J129" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>